--- a/Dokument/Gantt-schema_ProjectC4.xlsx
+++ b/Dokument/Gantt-schema_ProjectC4.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="14180"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25610" windowHeight="14180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Milstolpar och aktiviteter" sheetId="1" r:id="rId1"/>
+    <sheet name="Deltagare och aktiviteter" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
   <si>
     <t>Milstolpar och aktiviteter</t>
   </si>
@@ -69,9 +70,6 @@
     <t xml:space="preserve">    Extra features</t>
   </si>
   <si>
-    <t>Testrapport</t>
-  </si>
-  <si>
     <t>Projektanalys</t>
   </si>
   <si>
@@ -91,6 +89,66 @@
   </si>
   <si>
     <t>Samtliga</t>
+  </si>
+  <si>
+    <t>Deltagare och aktiviteter</t>
+  </si>
+  <si>
+    <t>Jimmy Maksymiw</t>
+  </si>
+  <si>
+    <t>Kalle Bornemark</t>
+  </si>
+  <si>
+    <t>Erik Sandgren</t>
+  </si>
+  <si>
+    <t>Emil Sandgren</t>
+  </si>
+  <si>
+    <t>Erik</t>
+  </si>
+  <si>
+    <t>Emil</t>
+  </si>
+  <si>
+    <t>Jimmy</t>
+  </si>
+  <si>
+    <t>Kalle</t>
+  </si>
+  <si>
+    <t>Testning och testrapport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Spellogik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Databas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    asd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Animationer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nätverkskommunikation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Testmiljöer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Extra features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Grafik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Testning och testrapport</t>
+  </si>
+  <si>
+    <t>kalle</t>
   </si>
 </sst>
 </file>
@@ -137,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,8 +214,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -300,11 +394,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -362,6 +495,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +595,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,7 +630,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -668,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -677,7 +850,7 @@
     <col min="1" max="1" width="28.54296875" customWidth="1"/>
     <col min="2" max="2" width="7.453125" customWidth="1"/>
     <col min="3" max="3" width="9.453125" customWidth="1"/>
-    <col min="5" max="16" width="3.6328125" style="1" customWidth="1"/>
+    <col min="5" max="16" width="3.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -738,16 +911,16 @@
     </row>
     <row r="3" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="14">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -764,7 +937,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -789,8 +962,12 @@
       <c r="B5" s="2">
         <v>15</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -811,8 +988,12 @@
       <c r="B6" s="2">
         <v>15</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -833,8 +1014,12 @@
       <c r="B7" s="2">
         <v>15</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -850,13 +1035,17 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
         <v>40</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>22</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -913,11 +1102,15 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>120</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -935,10 +1128,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>30</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
@@ -959,9 +1156,13 @@
       <c r="B13" s="2">
         <v>100</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="5"/>
+      <c r="C13" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -979,10 +1180,14 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>80</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>28</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1003,8 +1208,12 @@
       <c r="B15" s="2">
         <v>80</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
@@ -1023,10 +1232,14 @@
         <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>100</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>30</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
@@ -1047,8 +1260,12 @@
       <c r="B17" s="2">
         <v>80</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1064,13 +1281,17 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
         <v>40</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>22</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1104,13 +1325,17 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2">
-        <v>30</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>31</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
       <c r="G20" s="4"/>
@@ -1144,13 +1369,17 @@
     </row>
     <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="21">
         <v>20</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+      <c r="C22" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>22</v>
+      </c>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -1166,11 +1395,11 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="12" t="str">
         <f>SUM(B3:B22) &amp; " h"</f>
-        <v>760 h</v>
+        <v>800 h</v>
       </c>
     </row>
   </sheetData>
@@ -1182,4 +1411,722 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.54296875" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625"/>
+    <col min="5" max="16" width="3.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11">
+        <v>12</v>
+      </c>
+      <c r="F2" s="11">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11">
+        <v>14</v>
+      </c>
+      <c r="H2" s="11">
+        <v>15</v>
+      </c>
+      <c r="I2" s="11">
+        <v>16</v>
+      </c>
+      <c r="J2" s="11">
+        <v>17</v>
+      </c>
+      <c r="K2" s="11">
+        <v>18</v>
+      </c>
+      <c r="L2" s="11">
+        <v>19</v>
+      </c>
+      <c r="M2" s="11">
+        <v>20</v>
+      </c>
+      <c r="N2" s="11">
+        <v>21</v>
+      </c>
+      <c r="O2" s="11">
+        <v>22</v>
+      </c>
+      <c r="P2" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="25"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2">
+        <v>110</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="26"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="26"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="26"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2">
+        <v>80</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="26"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="26"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="26"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="26"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2">
+        <v>100</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="26"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="26"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="26"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2">
+        <v>110</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="26"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="26"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="26"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="26"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2">
+        <v>50</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="26"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="26"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="26"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2">
+        <v>80</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="26"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="26"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="26"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="26"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="30">
+        <v>100</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="32"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="32"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="32"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="30">
+        <v>20</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="32"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="32"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="28"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="12" t="str">
+        <f>SUM(B3:B30) &amp; " h"</f>
+        <v>650 h</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>